--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/9/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/9/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0899964</v>
       </c>
       <c r="B5" t="n">
-        <v>3.31913</v>
+        <v>3.31719</v>
       </c>
       <c r="C5" t="n">
-        <v>3319.13</v>
+        <v>3317.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.120005</v>
+        <v>0.119974</v>
       </c>
       <c r="B6" t="n">
-        <v>4.2541</v>
+        <v>3.82243</v>
       </c>
       <c r="C6" t="n">
-        <v>4254.1</v>
+        <v>3822.43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.150013</v>
+        <v>0.149982</v>
       </c>
       <c r="B7" t="n">
-        <v>4.87408</v>
+        <v>4.23221</v>
       </c>
       <c r="C7" t="n">
-        <v>4874.08</v>
+        <v>4232.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.179965</v>
+        <v>0.179934</v>
       </c>
       <c r="B8" t="n">
-        <v>5.38675</v>
+        <v>4.54408</v>
       </c>
       <c r="C8" t="n">
-        <v>5386.75</v>
+        <v>4544.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.209917</v>
+        <v>0.209886</v>
       </c>
       <c r="B9" t="n">
-        <v>5.76381</v>
+        <v>4.85101</v>
       </c>
       <c r="C9" t="n">
-        <v>5763.81</v>
+        <v>4851.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.23987</v>
+        <v>0.239839</v>
       </c>
       <c r="B10" t="n">
-        <v>6.12692</v>
+        <v>5.1051</v>
       </c>
       <c r="C10" t="n">
-        <v>6126.92</v>
+        <v>5105.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.269786</v>
+        <v>0.269757</v>
       </c>
       <c r="B11" t="n">
-        <v>6.38791</v>
+        <v>5.35366</v>
       </c>
       <c r="C11" t="n">
-        <v>6387.91</v>
+        <v>5353.66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.299687</v>
+        <v>0.299667</v>
       </c>
       <c r="B12" t="n">
-        <v>6.632210000000001</v>
+        <v>5.54469</v>
       </c>
       <c r="C12" t="n">
-        <v>6632.21</v>
+        <v>5544.69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.329584</v>
+        <v>0.329568</v>
       </c>
       <c r="B13" t="n">
-        <v>6.84015</v>
+        <v>5.72043</v>
       </c>
       <c r="C13" t="n">
-        <v>6840.15</v>
+        <v>5720.43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.359485</v>
+        <v>0.359469</v>
       </c>
       <c r="B14" t="n">
-        <v>7.01375</v>
+        <v>5.85624</v>
       </c>
       <c r="C14" t="n">
-        <v>7013.75</v>
+        <v>5856.24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.389386</v>
+        <v>0.38937</v>
       </c>
       <c r="B15" t="n">
-        <v>7.15771</v>
+        <v>6.00909</v>
       </c>
       <c r="C15" t="n">
-        <v>7157.71</v>
+        <v>6009.09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.419287</v>
+        <v>0.419267</v>
       </c>
       <c r="B16" t="n">
-        <v>7.29733</v>
+        <v>6.11429</v>
       </c>
       <c r="C16" t="n">
-        <v>7297.33</v>
+        <v>6114.29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.449188</v>
+        <v>0.449168</v>
       </c>
       <c r="B17" t="n">
-        <v>7.43769</v>
+        <v>6.22967</v>
       </c>
       <c r="C17" t="n">
-        <v>7437.69</v>
+        <v>6229.67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.479089</v>
+        <v>0.479069</v>
       </c>
       <c r="B18" t="n">
-        <v>7.53992</v>
+        <v>6.339060000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>7539.92</v>
+        <v>6339.06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5089900000000001</v>
+        <v>0.50897</v>
       </c>
       <c r="B19" t="n">
-        <v>7.66167</v>
+        <v>6.43646</v>
       </c>
       <c r="C19" t="n">
-        <v>7661.67</v>
+        <v>6436.46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.538891</v>
+        <v>0.538871</v>
       </c>
       <c r="B20" t="n">
-        <v>7.752050000000001</v>
+        <v>6.524520000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>7752.05</v>
+        <v>6524.52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.568792</v>
+        <v>0.5687720000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>7.84394</v>
+        <v>6.60772</v>
       </c>
       <c r="C21" t="n">
-        <v>7843.94</v>
+        <v>6607.72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.5988059999999999</v>
+        <v>0.598786</v>
       </c>
       <c r="B22" t="n">
-        <v>7.93765</v>
+        <v>6.68742</v>
       </c>
       <c r="C22" t="n">
-        <v>7937.65</v>
+        <v>6687.42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.628947</v>
+        <v>0.628926</v>
       </c>
       <c r="B23" t="n">
-        <v>8.021180000000001</v>
+        <v>6.76139</v>
       </c>
       <c r="C23" t="n">
-        <v>8021.18</v>
+        <v>6761.39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.659091</v>
+        <v>0.659071</v>
       </c>
       <c r="B24" t="n">
-        <v>8.096780000000001</v>
+        <v>6.8306</v>
       </c>
       <c r="C24" t="n">
-        <v>8096.78</v>
+        <v>6830.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.689232</v>
+        <v>0.689211</v>
       </c>
       <c r="B25" t="n">
-        <v>8.16751</v>
+        <v>6.89679</v>
       </c>
       <c r="C25" t="n">
-        <v>8167.51</v>
+        <v>6896.79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.719372</v>
+        <v>0.719356</v>
       </c>
       <c r="B26" t="n">
-        <v>8.23582</v>
+        <v>6.9625</v>
       </c>
       <c r="C26" t="n">
-        <v>8235.82</v>
+        <v>6962.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.749517</v>
+        <v>0.7494960000000001</v>
       </c>
       <c r="B27" t="n">
-        <v>8.301080000000001</v>
+        <v>7.026680000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>8301.08</v>
+        <v>7026.68</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.779657</v>
+        <v>0.779637</v>
       </c>
       <c r="B28" t="n">
-        <v>8.363770000000001</v>
+        <v>7.08839</v>
       </c>
       <c r="C28" t="n">
-        <v>8363.77</v>
+        <v>7088.39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.809802</v>
+        <v>0.809782</v>
       </c>
       <c r="B29" t="n">
-        <v>8.423020000000001</v>
+        <v>7.14419</v>
       </c>
       <c r="C29" t="n">
-        <v>8423.02</v>
+        <v>7144.19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.839942</v>
+        <v>0.8399219999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>8.477780000000001</v>
+        <v>7.19541</v>
       </c>
       <c r="C30" t="n">
-        <v>8477.780000000001</v>
+        <v>7195.41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.870082</v>
+        <v>0.870062</v>
       </c>
       <c r="B31" t="n">
-        <v>8.528790000000001</v>
+        <v>7.24953</v>
       </c>
       <c r="C31" t="n">
-        <v>8528.790000000001</v>
+        <v>7249.53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.900227</v>
+        <v>0.900207</v>
       </c>
       <c r="B32" t="n">
-        <v>8.578299999999999</v>
+        <v>7.30201</v>
       </c>
       <c r="C32" t="n">
-        <v>8578.299999999999</v>
+        <v>7302.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9303670000000001</v>
+        <v>0.930347</v>
       </c>
       <c r="B33" t="n">
-        <v>8.62927</v>
+        <v>7.34667</v>
       </c>
       <c r="C33" t="n">
-        <v>8629.27</v>
+        <v>7346.67</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.960508</v>
+        <v>0.960492</v>
       </c>
       <c r="B34" t="n">
-        <v>8.678840000000001</v>
+        <v>7.39465</v>
       </c>
       <c r="C34" t="n">
-        <v>8678.84</v>
+        <v>7394.65</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.990652</v>
+        <v>0.990632</v>
       </c>
       <c r="B35" t="n">
-        <v>8.722280000000001</v>
+        <v>7.4405</v>
       </c>
       <c r="C35" t="n">
-        <v>8722.280000000001</v>
+        <v>7440.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.02079</v>
+        <v>1.02077</v>
       </c>
       <c r="B36" t="n">
-        <v>8.76305</v>
+        <v>7.48134</v>
       </c>
       <c r="C36" t="n">
-        <v>8763.049999999999</v>
+        <v>7481.34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.05093</v>
+        <v>1.05092</v>
       </c>
       <c r="B37" t="n">
-        <v>8.80715</v>
+        <v>7.52543</v>
       </c>
       <c r="C37" t="n">
-        <v>8807.15</v>
+        <v>7525.43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.08108</v>
+        <v>1.08106</v>
       </c>
       <c r="B38" t="n">
-        <v>8.847160000000001</v>
+        <v>7.56329</v>
       </c>
       <c r="C38" t="n">
-        <v>8847.16</v>
+        <v>7563.29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.11122</v>
+        <v>1.1112</v>
       </c>
       <c r="B39" t="n">
-        <v>8.88306</v>
+        <v>7.60405</v>
       </c>
       <c r="C39" t="n">
-        <v>8883.059999999999</v>
+        <v>7604.05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.14136</v>
+        <v>1.14134</v>
       </c>
       <c r="B40" t="n">
-        <v>8.922649999999999</v>
+        <v>7.64031</v>
       </c>
       <c r="C40" t="n">
-        <v>8922.65</v>
+        <v>7640.31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.1715</v>
+        <v>1.17148</v>
       </c>
       <c r="B41" t="n">
-        <v>8.9566</v>
+        <v>7.67758</v>
       </c>
       <c r="C41" t="n">
-        <v>8956.6</v>
+        <v>7677.58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.20164</v>
+        <v>1.20162</v>
       </c>
       <c r="B42" t="n">
-        <v>8.99112</v>
+        <v>7.71191</v>
       </c>
       <c r="C42" t="n">
-        <v>8991.120000000001</v>
+        <v>7711.91</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.23179</v>
+        <v>1.23177</v>
       </c>
       <c r="B43" t="n">
-        <v>9.02463</v>
+        <v>7.7467</v>
       </c>
       <c r="C43" t="n">
-        <v>9024.629999999999</v>
+        <v>7746.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.26193</v>
+        <v>1.26191</v>
       </c>
       <c r="B44" t="n">
-        <v>9.05503</v>
+        <v>7.778189999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>9055.030000000001</v>
+        <v>7778.19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.29207</v>
+        <v>1.29205</v>
       </c>
       <c r="B45" t="n">
-        <v>9.086950000000002</v>
+        <v>7.81163</v>
       </c>
       <c r="C45" t="n">
-        <v>9086.950000000001</v>
+        <v>7811.63</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.32221</v>
+        <v>1.32219</v>
       </c>
       <c r="B46" t="n">
-        <v>9.115020000000001</v>
+        <v>7.84053</v>
       </c>
       <c r="C46" t="n">
-        <v>9115.02</v>
+        <v>7840.53</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.35235</v>
+        <v>1.35233</v>
       </c>
       <c r="B47" t="n">
-        <v>9.14471</v>
+        <v>7.87186</v>
       </c>
       <c r="C47" t="n">
-        <v>9144.709999999999</v>
+        <v>7871.86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.38249</v>
+        <v>1.38248</v>
       </c>
       <c r="B48" t="n">
-        <v>9.171110000000001</v>
+        <v>7.90032</v>
       </c>
       <c r="C48" t="n">
-        <v>9171.110000000001</v>
+        <v>7900.32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.41264</v>
+        <v>1.41262</v>
       </c>
       <c r="B49" t="n">
-        <v>9.19821</v>
+        <v>7.92794</v>
       </c>
       <c r="C49" t="n">
-        <v>9198.209999999999</v>
+        <v>7927.94</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.44278</v>
+        <v>1.44276</v>
       </c>
       <c r="B50" t="n">
-        <v>9.22362</v>
+        <v>7.95645</v>
       </c>
       <c r="C50" t="n">
-        <v>9223.620000000001</v>
+        <v>7956.45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.47292</v>
+        <v>1.4729</v>
       </c>
       <c r="B51" t="n">
-        <v>9.2478</v>
+        <v>7.98186</v>
       </c>
       <c r="C51" t="n">
-        <v>9247.799999999999</v>
+        <v>7981.86</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.50306</v>
+        <v>1.50304</v>
       </c>
       <c r="B52" t="n">
-        <v>9.272360000000001</v>
+        <v>8.007619999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>9272.360000000001</v>
+        <v>8007.62</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.5332</v>
+        <v>1.53318</v>
       </c>
       <c r="B53" t="n">
-        <v>9.294200000000002</v>
+        <v>8.033430000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>9294.200000000001</v>
+        <v>8033.43</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.56335</v>
+        <v>1.56333</v>
       </c>
       <c r="B54" t="n">
-        <v>9.31706</v>
+        <v>8.05682</v>
       </c>
       <c r="C54" t="n">
-        <v>9317.059999999999</v>
+        <v>8056.82</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.59349</v>
+        <v>1.59347</v>
       </c>
       <c r="B55" t="n">
-        <v>9.338270000000001</v>
+        <v>8.080120000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>9338.27</v>
+        <v>8080.12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.62363</v>
+        <v>1.62361</v>
       </c>
       <c r="B56" t="n">
-        <v>9.35825</v>
+        <v>8.1038</v>
       </c>
       <c r="C56" t="n">
-        <v>9358.25</v>
+        <v>8103.8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.65377</v>
+        <v>1.65375</v>
       </c>
       <c r="B57" t="n">
-        <v>9.37876</v>
+        <v>8.12567</v>
       </c>
       <c r="C57" t="n">
-        <v>9378.76</v>
+        <v>8125.67</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.68391</v>
+        <v>1.68389</v>
       </c>
       <c r="B58" t="n">
-        <v>9.397620000000002</v>
+        <v>8.146609999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>9397.620000000001</v>
+        <v>8146.61</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.71406</v>
+        <v>1.71404</v>
       </c>
       <c r="B59" t="n">
-        <v>9.415570000000001</v>
+        <v>8.16783</v>
       </c>
       <c r="C59" t="n">
-        <v>9415.57</v>
+        <v>8167.83</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.7442</v>
+        <v>1.74418</v>
       </c>
       <c r="B60" t="n">
-        <v>9.43378</v>
+        <v>8.188499999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>9433.780000000001</v>
+        <v>8188.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.77434</v>
+        <v>1.77432</v>
       </c>
       <c r="B61" t="n">
-        <v>9.45091</v>
+        <v>8.20809</v>
       </c>
       <c r="C61" t="n">
-        <v>9450.91</v>
+        <v>8208.09</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.80449</v>
+        <v>1.80446</v>
       </c>
       <c r="B62" t="n">
-        <v>9.46688</v>
+        <v>8.22683</v>
       </c>
       <c r="C62" t="n">
-        <v>9466.879999999999</v>
+        <v>8226.83</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.83463</v>
+        <v>1.83461</v>
       </c>
       <c r="B63" t="n">
-        <v>9.482709999999999</v>
+        <v>8.24541</v>
       </c>
       <c r="C63" t="n">
-        <v>9482.709999999999</v>
+        <v>8245.41</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.86463</v>
+        <v>1.86475</v>
       </c>
       <c r="B64" t="n">
-        <v>9.49813</v>
+        <v>8.263860000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>9498.129999999999</v>
+        <v>8263.860000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.89437</v>
+        <v>1.89489</v>
       </c>
       <c r="B65" t="n">
-        <v>9.512549999999999</v>
+        <v>8.28159</v>
       </c>
       <c r="C65" t="n">
-        <v>9512.549999999999</v>
+        <v>8281.59</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.92409</v>
+        <v>1.92503</v>
       </c>
       <c r="B66" t="n">
-        <v>9.52617</v>
+        <v>8.29857</v>
       </c>
       <c r="C66" t="n">
-        <v>9526.17</v>
+        <v>8298.57</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.95382</v>
+        <v>1.95518</v>
       </c>
       <c r="B67" t="n">
-        <v>9.539440000000001</v>
+        <v>8.31485</v>
       </c>
       <c r="C67" t="n">
-        <v>9539.440000000001</v>
+        <v>8314.85</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.98355</v>
+        <v>1.98532</v>
       </c>
       <c r="B68" t="n">
-        <v>9.55233</v>
+        <v>8.33081</v>
       </c>
       <c r="C68" t="n">
-        <v>9552.33</v>
+        <v>8330.809999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.01328</v>
+        <v>2.01523</v>
       </c>
       <c r="B69" t="n">
-        <v>9.5646</v>
+        <v>8.346489999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>9564.6</v>
+        <v>8346.49</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.04301</v>
+        <v>2.04496</v>
       </c>
       <c r="B70" t="n">
-        <v>9.576120000000001</v>
+        <v>8.361750000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>9576.120000000001</v>
+        <v>8361.75</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.07274</v>
+        <v>2.07469</v>
       </c>
       <c r="B71" t="n">
-        <v>9.58705</v>
+        <v>8.376520000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>9587.049999999999</v>
+        <v>8376.52</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.10247</v>
+        <v>2.10442</v>
       </c>
       <c r="B72" t="n">
-        <v>9.597520000000001</v>
+        <v>8.39068</v>
       </c>
       <c r="C72" t="n">
-        <v>9597.52</v>
+        <v>8390.68</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.1322</v>
+        <v>2.13415</v>
       </c>
       <c r="B73" t="n">
-        <v>9.607559999999999</v>
+        <v>8.40436</v>
       </c>
       <c r="C73" t="n">
-        <v>9607.559999999999</v>
+        <v>8404.360000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.16259</v>
+        <v>2.16388</v>
       </c>
       <c r="B74" t="n">
-        <v>9.617330000000001</v>
+        <v>8.41757</v>
       </c>
       <c r="C74" t="n">
-        <v>9617.33</v>
+        <v>8417.57</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.19331</v>
+        <v>2.19361</v>
       </c>
       <c r="B75" t="n">
-        <v>9.626659999999999</v>
+        <v>8.430350000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>9626.66</v>
+        <v>8430.35</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.22403</v>
+        <v>2.22333</v>
       </c>
       <c r="B76" t="n">
-        <v>9.63536</v>
+        <v>8.44275</v>
       </c>
       <c r="C76" t="n">
-        <v>9635.360000000001</v>
+        <v>8442.75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.25475</v>
+        <v>2.25306</v>
       </c>
       <c r="B77" t="n">
-        <v>9.64349</v>
+        <v>8.45477</v>
       </c>
       <c r="C77" t="n">
-        <v>9643.49</v>
+        <v>8454.77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.28491</v>
+        <v>2.28279</v>
       </c>
       <c r="B78" t="n">
-        <v>9.65114</v>
+        <v>8.46641</v>
       </c>
       <c r="C78" t="n">
-        <v>9651.139999999999</v>
+        <v>8466.41</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.31478</v>
+        <v>2.31252</v>
       </c>
       <c r="B79" t="n">
-        <v>9.658250000000001</v>
+        <v>8.477650000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>9658.25</v>
+        <v>8477.65</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.34464</v>
+        <v>2.34225</v>
       </c>
       <c r="B80" t="n">
-        <v>9.664850000000001</v>
+        <v>8.48854</v>
       </c>
       <c r="C80" t="n">
-        <v>9664.85</v>
+        <v>8488.540000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.37451</v>
+        <v>2.37285</v>
       </c>
       <c r="B81" t="n">
-        <v>9.67102</v>
+        <v>8.499319999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>9671.02</v>
+        <v>8499.32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.40438</v>
+        <v>2.40357</v>
       </c>
       <c r="B82" t="n">
-        <v>9.67666</v>
+        <v>8.509770000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>9676.66</v>
+        <v>8509.77</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.43424</v>
+        <v>2.43428</v>
       </c>
       <c r="B83" t="n">
-        <v>9.68172</v>
+        <v>8.519770000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>9681.719999999999</v>
+        <v>8519.77</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.46411</v>
+        <v>2.46501</v>
       </c>
       <c r="B84" t="n">
-        <v>9.68633</v>
+        <v>8.52941</v>
       </c>
       <c r="C84" t="n">
-        <v>9686.33</v>
+        <v>8529.41</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.49398</v>
+        <v>2.49573</v>
       </c>
       <c r="B85" t="n">
-        <v>9.69042</v>
+        <v>8.538650000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>9690.42</v>
+        <v>8538.65</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.52385</v>
+        <v>2.52612</v>
       </c>
       <c r="B86" t="n">
-        <v>9.693959999999999</v>
+        <v>8.54749</v>
       </c>
       <c r="C86" t="n">
-        <v>9693.959999999999</v>
+        <v>8547.49</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.55371</v>
+        <v>2.55599</v>
       </c>
       <c r="B87" t="n">
-        <v>9.69702</v>
+        <v>8.55598</v>
       </c>
       <c r="C87" t="n">
-        <v>9697.02</v>
+        <v>8555.98</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.58358</v>
+        <v>2.58586</v>
       </c>
       <c r="B88" t="n">
-        <v>9.699540000000001</v>
+        <v>8.56404</v>
       </c>
       <c r="C88" t="n">
-        <v>9699.540000000001</v>
+        <v>8564.040000000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.61345</v>
+        <v>2.61572</v>
       </c>
       <c r="B89" t="n">
-        <v>9.701540000000001</v>
+        <v>8.571790000000002</v>
       </c>
       <c r="C89" t="n">
-        <v>9701.540000000001</v>
+        <v>8571.790000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.64331</v>
+        <v>2.64559</v>
       </c>
       <c r="B90" t="n">
-        <v>9.70299</v>
+        <v>8.579120000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>9702.99</v>
+        <v>8579.120000000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.67318</v>
+        <v>2.67546</v>
       </c>
       <c r="B91" t="n">
-        <v>9.703889999999999</v>
+        <v>8.586129999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>9703.889999999999</v>
+        <v>8586.129999999999</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.70227</v>
+        <v>2.70532</v>
       </c>
       <c r="B92" t="n">
-        <v>9.70425</v>
+        <v>8.592739999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>9704.25</v>
+        <v>8592.74</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.73128</v>
+        <v>2.73519</v>
       </c>
       <c r="B93" t="n">
-        <v>9.704030000000001</v>
+        <v>8.59904</v>
       </c>
       <c r="C93" t="n">
-        <v>9704.030000000001</v>
+        <v>8599.040000000001</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.76029</v>
+        <v>2.76506</v>
       </c>
       <c r="B94" t="n">
-        <v>9.70326</v>
+        <v>8.604930000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>9703.26</v>
+        <v>8604.93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.7893</v>
+        <v>2.79492</v>
       </c>
       <c r="B95" t="n">
-        <v>9.701930000000001</v>
+        <v>8.61051</v>
       </c>
       <c r="C95" t="n">
-        <v>9701.93</v>
+        <v>8610.51</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.81832</v>
+        <v>2.82479</v>
       </c>
       <c r="B96" t="n">
-        <v>9.700010000000001</v>
+        <v>8.61571</v>
       </c>
       <c r="C96" t="n">
-        <v>9700.01</v>
+        <v>8615.709999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.84811</v>
+        <v>2.85466</v>
       </c>
       <c r="B97" t="n">
-        <v>9.697430000000001</v>
+        <v>8.620610000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>9697.43</v>
+        <v>8620.610000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.87919</v>
+        <v>2.88452</v>
       </c>
       <c r="B98" t="n">
-        <v>9.69393</v>
+        <v>8.625069999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>9693.93</v>
+        <v>8625.07</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.91028</v>
+        <v>2.91439</v>
       </c>
       <c r="B99" t="n">
-        <v>9.689680000000001</v>
+        <v>8.62922</v>
       </c>
       <c r="C99" t="n">
-        <v>9689.68</v>
+        <v>8629.219999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.94136</v>
+        <v>2.94426</v>
       </c>
       <c r="B100" t="n">
-        <v>9.684719999999999</v>
+        <v>8.63302</v>
       </c>
       <c r="C100" t="n">
-        <v>9684.719999999999</v>
+        <v>8633.02</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.97245</v>
+        <v>2.97412</v>
       </c>
       <c r="B101" t="n">
-        <v>9.679040000000001</v>
+        <v>8.63644</v>
       </c>
       <c r="C101" t="n">
-        <v>9679.040000000001</v>
+        <v>8636.440000000001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.00353</v>
+        <v>3.00399</v>
       </c>
       <c r="B102" t="n">
-        <v>9.67267</v>
+        <v>8.639530000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>9672.67</v>
+        <v>8639.530000000001</v>
       </c>
     </row>
   </sheetData>
